--- a/個人課表/D8765409.xlsx
+++ b/個人課表/D8765409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D08671-567A-4940-98BC-94A3AED1FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1E2DA1-D9EC-4A99-AD59-6970F95F51D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,9 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供應鏈管理</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,16 +136,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +448,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -435,7 +456,7 @@
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,15 +473,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
